--- a/Excel/镇魂街/技能/skill_effect.xlsx
+++ b/Excel/镇魂街/技能/skill_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\技能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F34859-C200-4522-9B4A-5E31AF0597F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F836B892-9EB1-42A3-9E8E-E5B337AA43E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="skill_effect_buff" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill_effect!$A$1:$T$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill_effect!$A$1:$T$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="275">
   <si>
     <t>标识</t>
   </si>
@@ -309,9 +309,6 @@
     <t>红莲缇娜技能2回复生命</t>
   </si>
   <si>
-    <t>103#4104</t>
-  </si>
-  <si>
     <t>战斗曹焱兵技能1伤害</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>0#0#0.5#2</t>
   </si>
   <si>
-    <t>许褚技能提升爆伤</t>
-  </si>
-  <si>
     <t>1#9999</t>
   </si>
   <si>
@@ -847,6 +841,26 @@
   </si>
   <si>
     <t>0#0#0#1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦技能伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦技能提升爆伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦技能伤害触发其他效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>110#1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#4104|108#0.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -866,12 +880,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1256,13 +1272,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T117"/>
+  <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J118" sqref="J118"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1924,14 +1940,12 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" s="12">
         <v>5</v>
       </c>
-      <c r="Q12" s="12">
-        <v>2</v>
-      </c>
+      <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12">
@@ -2021,7 +2035,9 @@
       <c r="P14" s="12">
         <v>5</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="12">
+        <v>4</v>
+      </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12">
@@ -2537,7 +2553,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="8">
         <v>2</v>
@@ -2556,7 +2572,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8" t="s">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -2580,7 +2596,7 @@
         <v>130100701</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -2598,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2624,7 +2640,7 @@
         <v>130100702</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -2674,7 +2690,7 @@
         <v>130200701</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -2720,7 +2736,7 @@
         <v>130200702</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -2764,7 +2780,7 @@
         <v>130100801</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -2808,7 +2824,7 @@
         <v>130100802</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -2826,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2852,7 +2868,7 @@
         <v>130200801</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
@@ -2902,7 +2918,7 @@
         <v>130100901</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -2946,7 +2962,7 @@
         <v>130100902</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -2992,7 +3008,7 @@
         <v>130200901</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8">
         <v>2</v>
@@ -3014,7 +3030,7 @@
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -3038,7 +3054,7 @@
         <v>130101001</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -3082,7 +3098,7 @@
         <v>130101002</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
@@ -3130,7 +3146,7 @@
         <v>130201001</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="8">
         <v>2</v>
@@ -3151,10 +3167,10 @@
         <v>89</v>
       </c>
       <c r="J39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -3178,7 +3194,7 @@
         <v>130101101</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="8">
         <v>1</v>
@@ -3222,7 +3238,7 @@
         <v>130101102</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
@@ -3244,7 +3260,7 @@
         <v>47</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -3268,7 +3284,7 @@
         <v>130201101</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -3312,7 +3328,7 @@
         <v>130201102</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -3358,7 +3374,7 @@
         <v>130101201</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -3402,7 +3418,7 @@
         <v>130101202</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
@@ -3444,7 +3460,7 @@
         <v>130201201</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
@@ -3466,7 +3482,7 @@
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -3490,7 +3506,7 @@
         <v>130101301</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -3536,7 +3552,7 @@
         <v>130101302</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
@@ -3580,7 +3596,7 @@
         <v>130201301</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -3624,7 +3640,7 @@
         <v>130201302</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -3668,7 +3684,7 @@
         <v>130101401</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -3712,7 +3728,7 @@
         <v>130101402</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -3758,7 +3774,7 @@
         <v>130201401</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -3793,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S53" s="12">
         <v>1</v>
@@ -3808,7 +3824,7 @@
         <v>130101501</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -3854,7 +3870,7 @@
         <v>130201501</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
@@ -3876,7 +3892,7 @@
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -3900,7 +3916,7 @@
         <v>130300101</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -3944,7 +3960,7 @@
         <v>130300201</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -3962,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3988,7 +4004,7 @@
         <v>130300301</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -4006,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -4032,7 +4048,7 @@
         <v>130300302</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="D59" s="8">
         <v>2</v>
@@ -4044,23 +4060,23 @@
         <v>1</v>
       </c>
       <c r="G59" s="8">
-        <v>4016</v>
+        <v>4022</v>
       </c>
       <c r="H59" s="8">
         <v>1</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K59" s="8"/>
+      <c r="I59" s="8">
+        <v>130300303</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P59" s="12">
         <v>1</v>
@@ -4075,30 +4091,32 @@
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="8">
-        <v>130300401</v>
+        <v>130300303</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="D60" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="8">
-        <v>1001</v>
+        <v>4016</v>
       </c>
       <c r="H60" s="8">
         <v>1</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J60" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -4107,11 +4125,9 @@
         <v>3</v>
       </c>
       <c r="P60" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="12">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
       <c r="S60" s="12"/>
       <c r="T60" s="12">
@@ -4121,28 +4137,28 @@
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="8">
-        <v>130300501</v>
+        <v>130300401</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D61" s="8">
         <v>1</v>
       </c>
       <c r="E61" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" s="8">
         <v>0</v>
       </c>
       <c r="G61" s="8">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="H61" s="8">
         <v>1</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -4150,12 +4166,14 @@
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P61" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q61" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>1</v>
+      </c>
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
       <c r="T61" s="12">
@@ -4164,29 +4182,29 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="9">
-        <v>130300601</v>
+      <c r="B62" s="8">
+        <v>130300501</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D62" s="8">
         <v>1</v>
       </c>
       <c r="E62" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" s="8">
         <v>0</v>
       </c>
       <c r="G62" s="8">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="H62" s="8">
         <v>1</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -4197,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="P62" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
@@ -4208,37 +4226,35 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="8">
-        <v>130300701</v>
+      <c r="B63" s="9">
+        <v>130300601</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D63" s="8">
         <v>1</v>
       </c>
       <c r="E63" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" s="8">
-        <v>4001</v>
+        <v>1001</v>
       </c>
       <c r="H63" s="8">
         <v>1</v>
       </c>
-      <c r="I63" s="8"/>
+      <c r="I63" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N63" s="8">
-        <v>4</v>
-      </c>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
       <c r="O63" s="8">
         <v>1</v>
       </c>
@@ -4255,10 +4271,10 @@
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="8">
-        <v>130300702</v>
+        <v>130300701</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64" s="8">
         <v>1</v>
@@ -4270,21 +4286,21 @@
         <v>2</v>
       </c>
       <c r="G64" s="8">
-        <v>4017</v>
+        <v>4001</v>
       </c>
       <c r="H64" s="8">
         <v>1</v>
       </c>
-      <c r="I64" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N64" s="8"/>
+      <c r="N64" s="8">
+        <v>4</v>
+      </c>
       <c r="O64" s="8">
         <v>1</v>
       </c>
@@ -4301,10 +4317,10 @@
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="8">
-        <v>130300703</v>
+        <v>130300702</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -4316,13 +4332,13 @@
         <v>2</v>
       </c>
       <c r="G65" s="8">
-        <v>4015</v>
+        <v>4017</v>
       </c>
       <c r="H65" s="8">
         <v>1</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -4347,10 +4363,10 @@
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="8">
-        <v>130300801</v>
+        <v>130300703</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D66" s="8">
         <v>1</v>
@@ -4362,18 +4378,20 @@
         <v>2</v>
       </c>
       <c r="G66" s="8">
-        <v>4013</v>
+        <v>4015</v>
       </c>
       <c r="H66" s="8">
         <v>1</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
+      <c r="M66" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8">
         <v>1</v>
@@ -4391,10 +4409,10 @@
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="8">
-        <v>130300802</v>
+        <v>130300801</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D67" s="8">
         <v>1</v>
@@ -4406,23 +4424,19 @@
         <v>2</v>
       </c>
       <c r="G67" s="8">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="H67" s="8">
         <v>1</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N67" s="8">
-        <v>4</v>
-      </c>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
       <c r="O67" s="8">
         <v>1</v>
       </c>
@@ -4439,10 +4453,10 @@
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="8">
-        <v>130300803</v>
+        <v>130300802</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D68" s="8">
         <v>1</v>
@@ -4454,12 +4468,14 @@
         <v>2</v>
       </c>
       <c r="G68" s="8">
-        <v>4001</v>
+        <v>4015</v>
       </c>
       <c r="H68" s="8">
         <v>1</v>
       </c>
-      <c r="I68" s="8"/>
+      <c r="I68" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -4485,10 +4501,10 @@
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="8">
-        <v>130300804</v>
+        <v>130300803</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D69" s="8">
         <v>1</v>
@@ -4500,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="8">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="H69" s="8">
         <v>1</v>
@@ -4531,10 +4547,10 @@
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="8">
-        <v>130300805</v>
+        <v>130300804</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D70" s="8">
         <v>1</v>
@@ -4546,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="8">
-        <v>4018</v>
+        <v>4004</v>
       </c>
       <c r="H70" s="8">
         <v>1</v>
@@ -4577,10 +4593,10 @@
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="8">
-        <v>130300901</v>
+        <v>130300805</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D71" s="8">
         <v>1</v>
@@ -4589,31 +4605,29 @@
         <v>4</v>
       </c>
       <c r="F71" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="8">
-        <v>4014</v>
+        <v>4018</v>
       </c>
       <c r="H71" s="8">
         <v>1</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>152</v>
-      </c>
+      <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="N71" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O71" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P71" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
@@ -4625,39 +4639,43 @@
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="8">
-        <v>130301001</v>
+        <v>130300901</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D72" s="8">
         <v>1</v>
       </c>
       <c r="E72" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="8">
-        <v>1001</v>
+        <v>4014</v>
       </c>
       <c r="H72" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
+      <c r="M72" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N72" s="8">
+        <v>1</v>
+      </c>
       <c r="O72" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
@@ -4669,33 +4687,31 @@
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="8">
-        <v>130301002</v>
+        <v>130301001</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
       </c>
       <c r="E73" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" s="8">
         <v>0</v>
       </c>
       <c r="G73" s="8">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="H73" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="J73" s="8"/>
-      <c r="K73" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -4703,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
@@ -4715,40 +4731,38 @@
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="8">
-        <v>130301101</v>
+        <v>130301002</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D74" s="8">
         <v>1</v>
       </c>
       <c r="E74" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="8">
-        <v>4005</v>
+        <v>3001</v>
       </c>
       <c r="H74" s="8">
         <v>1</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+      <c r="K74" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="L74" s="8"/>
-      <c r="M74" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N74" s="8">
-        <v>1</v>
-      </c>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
       <c r="O74" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P74" s="12">
         <v>4</v>
@@ -4763,10 +4777,10 @@
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="8">
-        <v>130301102</v>
+        <v>130301101</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D75" s="8">
         <v>1</v>
@@ -4784,22 +4798,22 @@
         <v>1</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N75" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O75" s="8">
         <v>3</v>
       </c>
       <c r="P75" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
@@ -4811,43 +4825,45 @@
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="8">
-        <v>130301201</v>
+        <v>130301102</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D76" s="8">
         <v>1</v>
       </c>
       <c r="E76" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="8">
-        <v>1008</v>
+        <v>4005</v>
       </c>
       <c r="H76" s="8">
         <v>1</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
+      <c r="M76" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N76" s="8">
+        <v>4</v>
+      </c>
       <c r="O76" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P76" s="12">
         <v>5</v>
       </c>
-      <c r="Q76" s="12">
-        <v>4</v>
-      </c>
+      <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
       <c r="T76" s="12">
@@ -4857,10 +4873,10 @@
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="8">
-        <v>130301301</v>
+        <v>130301201</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D77" s="8">
         <v>1</v>
@@ -4872,13 +4888,13 @@
         <v>0</v>
       </c>
       <c r="G77" s="8">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="H77" s="8">
         <v>1</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -4891,7 +4907,9 @@
       <c r="P77" s="12">
         <v>5</v>
       </c>
-      <c r="Q77" s="12"/>
+      <c r="Q77" s="12">
+        <v>4</v>
+      </c>
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
       <c r="T77" s="12">
@@ -4901,47 +4919,39 @@
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="8">
-        <v>130301302</v>
+        <v>130301301</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D78" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="8">
-        <v>4007</v>
+        <v>1001</v>
       </c>
       <c r="H78" s="8">
         <v>1</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
       <c r="L78" s="8"/>
-      <c r="M78" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N78" s="8">
-        <v>1</v>
-      </c>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
       <c r="O78" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P78" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
@@ -4953,39 +4963,47 @@
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="8">
-        <v>130301401</v>
+        <v>130301302</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D79" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F79" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="8">
-        <v>1001</v>
+        <v>4007</v>
       </c>
       <c r="H79" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="M79" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N79" s="8">
+        <v>1</v>
+      </c>
       <c r="O79" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P79" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
@@ -4997,10 +5015,10 @@
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="8">
-        <v>130301501</v>
+        <v>130301401</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
@@ -5015,10 +5033,10 @@
         <v>1001</v>
       </c>
       <c r="H80" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -5040,34 +5058,32 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="9">
-        <v>130301601</v>
+      <c r="B81" s="8">
+        <v>130301501</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D81" s="8">
         <v>1</v>
       </c>
       <c r="E81" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="8">
-        <v>3002</v>
+        <v>1001</v>
       </c>
       <c r="H81" s="8">
         <v>1</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J81" s="8"/>
-      <c r="K81" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
@@ -5086,45 +5102,45 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="8">
-        <v>130301701</v>
+      <c r="B82" s="9">
+        <v>130301601</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D82" s="8">
         <v>1</v>
       </c>
       <c r="E82" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F82" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="8">
-        <v>1001</v>
+        <v>3002</v>
       </c>
       <c r="H82" s="8">
         <v>1</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="K82" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P82" s="12">
         <v>5</v>
       </c>
       <c r="Q82" s="12"/>
-      <c r="R82" s="12" t="s">
-        <v>171</v>
-      </c>
+      <c r="R82" s="12"/>
       <c r="S82" s="12"/>
       <c r="T82" s="12">
         <v>0</v>
@@ -5133,31 +5149,31 @@
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="8">
-        <v>130301702</v>
+        <v>130301701</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
       </c>
       <c r="E83" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G83" s="8">
-        <v>4101</v>
+        <v>1001</v>
       </c>
       <c r="H83" s="8">
         <v>1</v>
       </c>
-      <c r="I83" s="8"/>
+      <c r="I83" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="J83" s="8"/>
-      <c r="K83" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
@@ -5168,7 +5184,9 @@
         <v>5</v>
       </c>
       <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
+      <c r="R83" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="S83" s="12"/>
       <c r="T83" s="12">
         <v>0</v>
@@ -5177,22 +5195,22 @@
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="8">
-        <v>130301703</v>
+        <v>130301702</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D84" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="8">
         <v>4</v>
       </c>
       <c r="F84" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" s="8">
-        <v>4010</v>
+        <v>4101</v>
       </c>
       <c r="H84" s="8">
         <v>1</v>
@@ -5200,7 +5218,7 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -5209,7 +5227,7 @@
         <v>3</v>
       </c>
       <c r="P84" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
@@ -5221,31 +5239,31 @@
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="8">
-        <v>130301801</v>
+        <v>130301703</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D85" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="8">
-        <v>1006</v>
+        <v>4010</v>
       </c>
       <c r="H85" s="8">
         <v>1</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="I85" s="8"/>
       <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+      <c r="K85" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
@@ -5265,10 +5283,10 @@
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="8">
-        <v>130301802</v>
+        <v>130301801</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D86" s="8">
         <v>1</v>
@@ -5280,13 +5298,13 @@
         <v>0</v>
       </c>
       <c r="G86" s="8">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="H86" s="8">
         <v>1</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -5294,10 +5312,10 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
@@ -5309,28 +5327,28 @@
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="8">
-        <v>130301901</v>
+        <v>130301802</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D87" s="8">
         <v>1</v>
       </c>
       <c r="E87" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F87" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="8">
-        <v>4005</v>
+        <v>1001</v>
       </c>
       <c r="H87" s="8">
         <v>1</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -5338,18 +5356,14 @@
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P87" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q87" s="12"/>
-      <c r="R87" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="S87" s="12">
-        <v>1</v>
-      </c>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
       <c r="T87" s="12">
         <v>0</v>
       </c>
@@ -5357,28 +5371,28 @@
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="8">
-        <v>130302001</v>
+        <v>130301901</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D88" s="8">
         <v>1</v>
       </c>
       <c r="E88" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="8">
-        <v>1001</v>
+        <v>4005</v>
       </c>
       <c r="H88" s="8">
         <v>1</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -5386,14 +5400,18 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P88" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
+      <c r="R88" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="S88" s="12">
+        <v>1</v>
+      </c>
       <c r="T88" s="12">
         <v>0</v>
       </c>
@@ -5401,10 +5419,10 @@
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="8">
-        <v>130302002</v>
+        <v>130302001</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D89" s="8">
         <v>1</v>
@@ -5422,12 +5440,10 @@
         <v>1</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="J89" s="8"/>
-      <c r="K89" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
@@ -5447,41 +5463,41 @@
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="8">
-        <v>130302003</v>
+        <v>130302002</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D90" s="8">
         <v>1</v>
       </c>
       <c r="E90" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="8">
-        <v>4008</v>
+        <v>1001</v>
       </c>
       <c r="H90" s="8">
         <v>1</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P90" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
@@ -5493,41 +5509,41 @@
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="8">
-        <v>130302004</v>
+        <v>130302003</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D91" s="8">
         <v>1</v>
       </c>
       <c r="E91" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F91" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="8">
-        <v>1001</v>
+        <v>4008</v>
       </c>
       <c r="H91" s="8">
         <v>1</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P91" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
@@ -5539,10 +5555,10 @@
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="8">
-        <v>130302101</v>
+        <v>130302004</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
@@ -5560,10 +5576,12 @@
         <v>1</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+      <c r="K92" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
@@ -5583,47 +5601,39 @@
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="8">
-        <v>130302102</v>
+        <v>130302101</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D93" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="8">
-        <v>4007</v>
+        <v>1001</v>
       </c>
       <c r="H93" s="8">
         <v>1</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
       <c r="L93" s="8"/>
-      <c r="M93" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N93" s="8">
-        <v>1</v>
-      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
       <c r="O93" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P93" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
@@ -5635,39 +5645,47 @@
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="8">
-        <v>130400101</v>
+        <v>130302102</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D94" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="8">
-        <v>1001</v>
+        <v>4007</v>
       </c>
       <c r="H94" s="8">
         <v>1</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
+      <c r="M94" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N94" s="8">
+        <v>1</v>
+      </c>
       <c r="O94" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P94" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
@@ -5679,28 +5697,28 @@
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="8">
-        <v>130400102</v>
+        <v>130400101</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
       </c>
       <c r="E95" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="8">
-        <v>4023</v>
+        <v>1001</v>
       </c>
       <c r="H95" s="8">
         <v>1</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -5723,28 +5741,28 @@
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="8">
-        <v>130400201</v>
+        <v>130400102</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D96" s="8">
         <v>1</v>
       </c>
       <c r="E96" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F96" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="8">
-        <v>1001</v>
+        <v>4023</v>
       </c>
       <c r="H96" s="8">
         <v>1</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -5767,28 +5785,28 @@
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="8">
-        <v>130400202</v>
+        <v>130400201</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
       </c>
       <c r="E97" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F97" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="8">
-        <v>4024</v>
+        <v>1001</v>
       </c>
       <c r="H97" s="8">
         <v>1</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -5811,28 +5829,28 @@
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="8">
-        <v>130400301</v>
+        <v>130400202</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D98" s="8">
         <v>1</v>
       </c>
       <c r="E98" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="8">
-        <v>1001</v>
+        <v>4024</v>
       </c>
       <c r="H98" s="8">
         <v>1</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -5855,33 +5873,31 @@
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="8">
-        <v>130400401</v>
+        <v>130400301</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D99" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" s="8">
         <v>0</v>
       </c>
       <c r="G99" s="8">
-        <v>3002</v>
+        <v>1001</v>
       </c>
       <c r="H99" s="8">
         <v>1</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="J99" s="8"/>
-      <c r="K99" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
@@ -5889,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="P99" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
@@ -5901,13 +5917,13 @@
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="8">
-        <v>130400501</v>
+        <v>130400401</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D100" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="8">
         <v>3</v>
@@ -5916,17 +5932,17 @@
         <v>0</v>
       </c>
       <c r="G100" s="8">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="H100" s="8">
         <v>1</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -5935,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="P100" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
@@ -5947,13 +5963,13 @@
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="8">
-        <v>130400601</v>
+        <v>130400501</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D101" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="8">
         <v>3</v>
@@ -5962,16 +5978,18 @@
         <v>0</v>
       </c>
       <c r="G101" s="8">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="H101" s="8">
         <v>1</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
+      <c r="K101" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -5979,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="P101" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q101" s="12"/>
       <c r="R101" s="12"/>
@@ -5991,13 +6009,13 @@
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="8">
-        <v>130400701</v>
+        <v>130400601</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D102" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="8">
         <v>3</v>
@@ -6006,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="8">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="H102" s="8">
         <v>1</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -6023,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="P102" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
@@ -6035,10 +6053,10 @@
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="8">
-        <v>130400801</v>
+        <v>130400701</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D103" s="8">
         <v>1</v>
@@ -6056,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -6079,10 +6097,10 @@
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="8">
-        <v>130400901</v>
+        <v>130400801</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D104" s="8">
         <v>1</v>
@@ -6100,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -6123,28 +6141,28 @@
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="8">
-        <v>130401001</v>
+        <v>130400901</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D105" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F105" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" s="8">
-        <v>4019</v>
+        <v>3001</v>
       </c>
       <c r="H105" s="8">
         <v>1</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -6152,10 +6170,10 @@
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
       <c r="O105" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P105" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
@@ -6167,10 +6185,10 @@
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="8">
-        <v>130401101</v>
+        <v>130401001</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D106" s="8">
         <v>2</v>
@@ -6182,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="8">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="H106" s="8">
         <v>1</v>
@@ -6211,10 +6229,10 @@
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="8">
-        <v>130401201</v>
+        <v>130401101</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D107" s="8">
         <v>2</v>
@@ -6226,18 +6244,16 @@
         <v>1</v>
       </c>
       <c r="G107" s="8">
-        <v>4025</v>
+        <v>4021</v>
       </c>
       <c r="H107" s="8">
         <v>1</v>
       </c>
-      <c r="I107" s="8">
-        <v>130401202</v>
+      <c r="I107" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="J107" s="8"/>
-      <c r="K107" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
@@ -6257,10 +6273,10 @@
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="8">
-        <v>130401202</v>
+        <v>130401201</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D108" s="8">
         <v>2</v>
@@ -6272,16 +6288,18 @@
         <v>1</v>
       </c>
       <c r="G108" s="8">
-        <v>4005</v>
+        <v>4025</v>
       </c>
       <c r="H108" s="8">
         <v>1</v>
       </c>
-      <c r="I108" s="8" t="s">
-        <v>73</v>
+      <c r="I108" s="8">
+        <v>130401202</v>
       </c>
       <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
+      <c r="K108" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
@@ -6301,28 +6319,28 @@
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="8">
-        <v>130401301</v>
+        <v>130401202</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D109" s="8">
         <v>2</v>
       </c>
       <c r="E109" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F109" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="8">
-        <v>1009</v>
+        <v>4005</v>
       </c>
       <c r="H109" s="8">
         <v>1</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -6345,10 +6363,10 @@
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="8">
-        <v>130401401</v>
+        <v>130401301</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D110" s="8">
         <v>2</v>
@@ -6360,18 +6378,16 @@
         <v>0</v>
       </c>
       <c r="G110" s="8">
-        <v>4008</v>
+        <v>1009</v>
       </c>
       <c r="H110" s="8">
         <v>1</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J110" s="8"/>
-      <c r="K110" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
@@ -6391,32 +6407,32 @@
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="8">
-        <v>130401501</v>
+        <v>130401401</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D111" s="8">
         <v>2</v>
       </c>
       <c r="E111" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F111" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="8">
-        <v>4022</v>
+        <v>4008</v>
       </c>
       <c r="H111" s="8">
         <v>1</v>
       </c>
-      <c r="I111" s="8">
-        <v>130401502</v>
+      <c r="I111" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -6437,10 +6453,10 @@
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="8">
-        <v>130401502</v>
+        <v>130401501</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D112" s="8">
         <v>2</v>
@@ -6449,19 +6465,21 @@
         <v>4</v>
       </c>
       <c r="F112" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" s="8">
-        <v>4012</v>
+        <v>4022</v>
       </c>
       <c r="H112" s="8">
         <v>1</v>
       </c>
-      <c r="I112" s="8" t="s">
-        <v>152</v>
+      <c r="I112" s="8">
+        <v>130401502</v>
       </c>
       <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
+      <c r="K112" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
@@ -6469,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="P112" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
@@ -6481,10 +6499,10 @@
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="8">
-        <v>130401601</v>
+        <v>130401502</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D113" s="8">
         <v>2</v>
@@ -6493,21 +6511,19 @@
         <v>4</v>
       </c>
       <c r="F113" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="8">
-        <v>4022</v>
+        <v>4012</v>
       </c>
       <c r="H113" s="8">
         <v>1</v>
       </c>
-      <c r="I113" s="8">
-        <v>130401602</v>
+      <c r="I113" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="J113" s="8"/>
-      <c r="K113" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
@@ -6515,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="P113" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
@@ -6527,30 +6543,33 @@
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="8">
-        <v>130401602</v>
+        <v>130401601</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D114" s="8">
         <v>2</v>
       </c>
       <c r="E114" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F114" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" s="8">
-        <v>1003</v>
+        <v>4022</v>
       </c>
       <c r="H114" s="8">
         <v>1</v>
       </c>
-      <c r="I114" s="8" t="s">
-        <v>217</v>
+      <c r="I114" s="8">
+        <v>130401602</v>
       </c>
       <c r="J114" s="8"/>
+      <c r="K114" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
@@ -6558,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="P114" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
@@ -6570,33 +6589,30 @@
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="8">
-        <v>130401701</v>
+        <v>130401602</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D115" s="8">
         <v>2</v>
       </c>
       <c r="E115" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F115" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="8">
-        <v>4008</v>
+        <v>1003</v>
       </c>
       <c r="H115" s="8">
         <v>1</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J115" s="8"/>
-      <c r="K115" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -6604,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="P115" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q115" s="12"/>
       <c r="R115" s="12"/>
@@ -6616,10 +6632,10 @@
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="8">
-        <v>130401801</v>
+        <v>130401701</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D116" s="8">
         <v>2</v>
@@ -6637,11 +6653,11 @@
         <v>1</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="8" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -6662,44 +6678,90 @@
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="8">
-        <v>130401901</v>
+        <v>130401801</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="D117" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F117" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="8">
-        <v>1001</v>
+        <v>4008</v>
       </c>
       <c r="H117" s="8">
         <v>1</v>
       </c>
-      <c r="I117" s="13" t="s">
-        <v>271</v>
+      <c r="I117" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
+      <c r="K117" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P117" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
       <c r="T117" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="8">
+        <v>130401901</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D118" s="8">
+        <v>1</v>
+      </c>
+      <c r="E118" s="8">
+        <v>1</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
+        <v>1001</v>
+      </c>
+      <c r="H118" s="8">
+        <v>1</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8">
+        <v>1</v>
+      </c>
+      <c r="P118" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6714,7 +6776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6733,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6775,10 +6837,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6820,10 +6882,10 @@
         <v>4001</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6832,10 +6894,10 @@
         <v>4003</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6844,10 +6906,10 @@
         <v>4004</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6856,7 +6918,7 @@
         <v>4005</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -6866,10 +6928,10 @@
         <v>4006</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6878,10 +6940,10 @@
         <v>4007</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6890,10 +6952,10 @@
         <v>4008</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6902,10 +6964,10 @@
         <v>4009</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6914,7 +6976,7 @@
         <v>4010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -6924,10 +6986,10 @@
         <v>4011</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6936,10 +6998,10 @@
         <v>4012</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6948,7 +7010,7 @@
         <v>4013</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -6958,7 +7020,7 @@
         <v>4014</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -6968,10 +7030,10 @@
         <v>4015</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6980,7 +7042,7 @@
         <v>4016</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -6990,10 +7052,10 @@
         <v>4017</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7002,7 +7064,7 @@
         <v>4018</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -7012,7 +7074,7 @@
         <v>4019</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -7022,7 +7084,7 @@
         <v>4020</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -7032,7 +7094,7 @@
         <v>4021</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -7042,7 +7104,7 @@
         <v>4022</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -7052,7 +7114,7 @@
         <v>4101</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -7062,10 +7124,10 @@
         <v>4102</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7074,10 +7136,10 @@
         <v>4103</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7086,10 +7148,10 @@
         <v>4104</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7098,10 +7160,10 @@
         <v>4105</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7110,10 +7172,10 @@
         <v>4106</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7122,7 +7184,7 @@
         <v>4107</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D35" s="5"/>
     </row>

--- a/Excel/镇魂街/技能/skill_effect.xlsx
+++ b/Excel/镇魂街/技能/skill_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\技能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F836B892-9EB1-42A3-9E8E-E5B337AA43E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EAD809-F1E0-480E-A17B-AAACAB3D312F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="280">
   <si>
     <t>标识</t>
   </si>
@@ -93,6 +93,12 @@
     <t>Share</t>
   </si>
   <si>
+    <t>FxType</t>
+  </si>
+  <si>
+    <t>FxId</t>
+  </si>
+  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -171,6 +177,12 @@
     <t>是否共享：0-不共享，1-共享</t>
   </si>
   <si>
+    <t>特效类型1-单个特效2-根据层数改变的类型</t>
+  </si>
+  <si>
+    <t>特效资源ID</t>
+  </si>
+  <si>
     <t>默认值</t>
   </si>
   <si>
@@ -309,6 +321,9 @@
     <t>红莲缇娜技能2回复生命</t>
   </si>
   <si>
+    <t>103#4104|108#0.1</t>
+  </si>
+  <si>
     <t>战斗曹焱兵技能1伤害</t>
   </si>
   <si>
@@ -432,9 +447,21 @@
     <t>0#0#0#2.5</t>
   </si>
   <si>
+    <t>典韦技能伤害</t>
+  </si>
+  <si>
     <t>0#0#0.5#2</t>
   </si>
   <si>
+    <t>典韦技能伤害触发其他效果</t>
+  </si>
+  <si>
+    <t>110#1</t>
+  </si>
+  <si>
+    <t>典韦技能提升爆伤</t>
+  </si>
+  <si>
     <t>1#9999</t>
   </si>
   <si>
@@ -615,9 +642,6 @@
     <t>插槽4削减水晶</t>
   </si>
   <si>
-    <t>110#1</t>
-  </si>
-  <si>
     <t>插槽5获得水晶</t>
   </si>
   <si>
@@ -696,6 +720,18 @@
     <t>108#0.3</t>
   </si>
   <si>
+    <t>插槽19伤害</t>
+  </si>
+  <si>
+    <t>砍刀鬼兵的普通攻击</t>
+  </si>
+  <si>
+    <t>双刀鬼兵的普通攻击</t>
+  </si>
+  <si>
+    <t>链球鬼兵的普通攻击</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -835,40 +871,13 @@
   </si>
   <si>
     <t>集火标记</t>
-  </si>
-  <si>
-    <t>插槽19伤害增加</t>
-  </si>
-  <si>
-    <t>0#0#0#1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦技能伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦技能提升爆伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦技能伤害触发其他效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>110#1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#4104|108#0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,13 +905,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -994,8 +996,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,13 +1274,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1299,10 +1301,12 @@
     <col min="16" max="16" width="23.25" style="7" customWidth="1"/>
     <col min="17" max="17" width="15.625" style="7" customWidth="1"/>
     <col min="18" max="18" width="21" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="7"/>
+    <col min="19" max="20" width="9" style="7"/>
+    <col min="21" max="22" width="14.25" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,72 +1367,84 @@
       <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="T2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1487,72 +1503,84 @@
       <c r="T3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
         <f>IF(B2="int",0,"")</f>
@@ -1587,7 +1615,7 @@
         <v/>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1598,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1623,10 +1651,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1675,64 +1705,68 @@
       <c r="T6" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>1000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8">
         <v>130100101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -1750,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1769,14 +1803,16 @@
       <c r="T8" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="8">
         <v>130100102</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -1794,11 +1830,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1815,14 +1851,16 @@
       <c r="T9" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="8">
         <v>130200101</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -1844,7 +1882,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N10" s="8">
         <v>4</v>
@@ -1861,14 +1899,20 @@
       <c r="T10" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="12">
+        <v>1</v>
+      </c>
+      <c r="V10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="8">
         <v>130200102</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -1886,11 +1930,11 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1907,14 +1951,16 @@
       <c r="T11" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="8">
         <v>130100201</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -1932,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1951,14 +1997,16 @@
       <c r="T12" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="8">
         <v>130100202</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -1976,11 +2024,11 @@
         <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1997,14 +2045,16 @@
       <c r="T13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="8">
         <v>130200201</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -2022,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -2030,7 +2080,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" s="12">
         <v>5</v>
@@ -2043,14 +2093,16 @@
       <c r="T14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="8">
         <v>130200202</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -2068,11 +2120,11 @@
         <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -2089,14 +2141,16 @@
       <c r="T15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="8">
         <v>130100301</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -2114,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2135,14 +2189,20 @@
       <c r="T16" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="12">
+        <v>1</v>
+      </c>
+      <c r="V16" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="8">
         <v>130100302</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -2160,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -2179,14 +2239,16 @@
       <c r="T17" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="8">
         <v>130200301</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D18" s="8">
         <v>2</v>
@@ -2204,11 +2266,11 @@
         <v>1</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2227,14 +2289,16 @@
       <c r="T18" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="9">
         <v>130100401</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -2252,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2271,14 +2335,20 @@
       <c r="T19" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="12">
+        <v>1</v>
+      </c>
+      <c r="V19" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>130200401</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -2296,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -2317,14 +2387,20 @@
       <c r="T20" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="12">
+        <v>2</v>
+      </c>
+      <c r="V20" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="8">
         <v>130100501</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -2342,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2361,14 +2437,20 @@
       <c r="T21" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="12">
+        <v>1</v>
+      </c>
+      <c r="V21" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="8">
         <v>130100502</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -2386,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -2405,14 +2487,16 @@
       <c r="T22" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="8">
         <v>130200501</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D23" s="8">
         <v>2</v>
@@ -2430,13 +2514,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N23" s="8">
         <v>5</v>
@@ -2453,14 +2537,20 @@
       <c r="T23" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="12">
+        <v>1</v>
+      </c>
+      <c r="V23" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="8">
         <v>130100601</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -2478,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -2497,14 +2587,16 @@
       <c r="T24" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="8">
         <v>130100602</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -2522,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -2543,14 +2635,20 @@
       <c r="T25" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="12">
+        <v>2</v>
+      </c>
+      <c r="V25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="8">
         <v>130200601</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
@@ -2568,11 +2666,11 @@
         <v>1</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8" t="s">
-        <v>274</v>
+        <v>96</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -2589,14 +2687,16 @@
       <c r="T26" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="8">
         <v>130100701</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -2614,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2633,14 +2733,16 @@
       <c r="T27" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="8">
         <v>130100702</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -2658,15 +2760,15 @@
         <v>1</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N28" s="8">
         <v>4</v>
@@ -2683,14 +2785,20 @@
       <c r="T28" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="12">
+        <v>1</v>
+      </c>
+      <c r="V28" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="8">
         <v>130200701</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -2708,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2729,14 +2837,16 @@
       <c r="T29" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="8">
         <v>130200702</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -2754,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2773,14 +2883,16 @@
       <c r="T30" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="8">
         <v>130100801</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -2798,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2817,14 +2929,16 @@
       <c r="T31" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="8">
         <v>130100802</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -2842,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2861,14 +2975,16 @@
       <c r="T32" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="8">
         <v>130200801</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
@@ -2886,15 +3002,15 @@
         <v>1</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N33" s="8">
         <v>5</v>
@@ -2911,14 +3027,16 @@
       <c r="T33" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="8">
         <v>130100901</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -2936,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2955,14 +3073,16 @@
       <c r="T34" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="8">
         <v>130100902</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -2980,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -3001,14 +3121,20 @@
       <c r="T35" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="12">
+        <v>1</v>
+      </c>
+      <c r="V35" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="8">
         <v>130200901</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8">
         <v>2</v>
@@ -3026,11 +3152,11 @@
         <v>1</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -3047,14 +3173,16 @@
       <c r="T36" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="9">
         <v>130101001</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -3072,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -3091,14 +3219,16 @@
       <c r="T37" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="9">
         <v>130101002</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
@@ -3116,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N38" s="8">
         <v>1</v>
@@ -3139,14 +3269,20 @@
       <c r="T38" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="12">
+        <v>1</v>
+      </c>
+      <c r="V38" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="9">
         <v>130201001</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8">
         <v>2</v>
@@ -3164,13 +3300,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -3187,14 +3323,20 @@
       <c r="T39" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="12">
+        <v>2</v>
+      </c>
+      <c r="V39" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="8">
         <v>130101101</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8">
         <v>1</v>
@@ -3212,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -3231,14 +3373,16 @@
       <c r="T40" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="8">
         <v>130101102</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
@@ -3257,10 +3401,10 @@
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -3277,14 +3421,20 @@
       <c r="T41" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="12">
+        <v>2</v>
+      </c>
+      <c r="V41" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="8">
         <v>130201101</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -3302,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -3321,14 +3471,16 @@
       <c r="T42" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="8">
         <v>130201102</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -3347,10 +3499,10 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -3367,14 +3519,20 @@
       <c r="T43" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="12">
+        <v>2</v>
+      </c>
+      <c r="V43" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="8">
         <v>130101201</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -3392,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -3411,14 +3569,16 @@
       <c r="T44" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="8">
         <v>130101202</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
@@ -3436,11 +3596,11 @@
         <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -3453,14 +3613,16 @@
       <c r="T45" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="8">
         <v>130201201</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
@@ -3478,11 +3640,11 @@
         <v>1</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -3499,14 +3661,16 @@
       <c r="T46" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="8">
         <v>130101301</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -3524,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -3545,14 +3709,16 @@
       <c r="T47" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="8">
         <v>130101302</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
@@ -3570,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -3589,14 +3755,16 @@
       <c r="T48" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="8">
         <v>130201301</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -3614,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -3633,14 +3801,16 @@
       <c r="T49" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="8">
         <v>130201302</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -3658,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -3677,14 +3847,16 @@
       <c r="T50" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="8">
         <v>130101401</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -3702,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -3721,14 +3893,16 @@
       <c r="T51" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="8">
         <v>130101402</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -3750,7 +3924,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N52" s="8">
         <v>4</v>
@@ -3767,14 +3941,20 @@
       <c r="T52" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="12">
+        <v>1</v>
+      </c>
+      <c r="V52" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="8">
         <v>130201401</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -3792,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -3809,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="S53" s="12">
         <v>1</v>
@@ -3817,14 +3997,16 @@
       <c r="T53" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="8">
         <v>130101501</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -3842,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3863,14 +4045,16 @@
       <c r="T54" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="8">
         <v>130201501</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
@@ -3888,11 +4072,11 @@
         <v>1</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -3909,14 +4093,16 @@
       <c r="T55" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="8">
         <v>130300101</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -3934,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3953,14 +4139,16 @@
       <c r="T56" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="8">
         <v>130300201</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -3978,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3997,14 +4185,16 @@
       <c r="T57" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="8">
         <v>130300301</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -4022,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -4041,14 +4231,16 @@
       <c r="T58" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="8">
         <v>130300302</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="D59" s="8">
         <v>2</v>
@@ -4070,7 +4262,7 @@
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -4087,14 +4279,16 @@
       <c r="T59" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="8">
         <v>130300303</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>271</v>
+        <v>142</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
@@ -4112,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -4133,14 +4327,20 @@
       <c r="T60" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="12">
+        <v>1</v>
+      </c>
+      <c r="V60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="8">
         <v>130300401</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D61" s="8">
         <v>1</v>
@@ -4158,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -4179,14 +4379,16 @@
       <c r="T61" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="8">
         <v>130300501</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D62" s="8">
         <v>1</v>
@@ -4204,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -4223,14 +4425,16 @@
       <c r="T62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="9">
         <v>130300601</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D63" s="8">
         <v>1</v>
@@ -4248,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -4267,14 +4471,16 @@
       <c r="T63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="8">
         <v>130300701</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D64" s="8">
         <v>1</v>
@@ -4296,7 +4502,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N64" s="8">
         <v>4</v>
@@ -4313,14 +4519,20 @@
       <c r="T64" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="12">
+        <v>1</v>
+      </c>
+      <c r="V64" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="8">
         <v>130300702</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -4338,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8">
@@ -4359,14 +4571,16 @@
       <c r="T65" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="8">
         <v>130300703</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D66" s="8">
         <v>1</v>
@@ -4384,13 +4598,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8">
@@ -4405,14 +4619,20 @@
       <c r="T66" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="12">
+        <v>1</v>
+      </c>
+      <c r="V66" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="8">
         <v>130300801</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D67" s="8">
         <v>1</v>
@@ -4430,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -4449,14 +4669,16 @@
       <c r="T67" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="8">
         <v>130300802</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D68" s="8">
         <v>1</v>
@@ -4474,13 +4696,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N68" s="8">
         <v>4</v>
@@ -4497,14 +4719,16 @@
       <c r="T68" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="8">
         <v>130300803</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D69" s="8">
         <v>1</v>
@@ -4526,7 +4750,7 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N69" s="8">
         <v>4</v>
@@ -4543,14 +4767,20 @@
       <c r="T69" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="12">
+        <v>1</v>
+      </c>
+      <c r="V69" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="8">
         <v>130300804</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D70" s="8">
         <v>1</v>
@@ -4572,7 +4802,7 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N70" s="8">
         <v>4</v>
@@ -4589,14 +4819,20 @@
       <c r="T70" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="12">
+        <v>1</v>
+      </c>
+      <c r="V70" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="8">
         <v>130300805</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D71" s="8">
         <v>1</v>
@@ -4618,7 +4854,7 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N71" s="8">
         <v>4</v>
@@ -4635,14 +4871,20 @@
       <c r="T71" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="12">
+        <v>1</v>
+      </c>
+      <c r="V71" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="8">
         <v>130300901</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D72" s="8">
         <v>1</v>
@@ -4660,13 +4902,13 @@
         <v>1</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N72" s="8">
         <v>1</v>
@@ -4683,14 +4925,16 @@
       <c r="T72" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="8">
         <v>130301001</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
@@ -4708,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -4727,14 +4971,16 @@
       <c r="T73" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="8">
         <v>130301002</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D74" s="8">
         <v>1</v>
@@ -4752,11 +4998,11 @@
         <v>1</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -4773,14 +5019,16 @@
       <c r="T74" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="8">
         <v>130301101</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D75" s="8">
         <v>1</v>
@@ -4798,13 +5046,13 @@
         <v>1</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N75" s="8">
         <v>1</v>
@@ -4821,14 +5069,20 @@
       <c r="T75" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="12">
+        <v>1</v>
+      </c>
+      <c r="V75" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="8">
         <v>130301102</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D76" s="8">
         <v>1</v>
@@ -4846,13 +5100,13 @@
         <v>1</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N76" s="8">
         <v>4</v>
@@ -4869,14 +5123,20 @@
       <c r="T76" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="12">
+        <v>1</v>
+      </c>
+      <c r="V76" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="8">
         <v>130301201</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D77" s="8">
         <v>1</v>
@@ -4894,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -4915,14 +5175,16 @@
       <c r="T77" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="8">
         <v>130301301</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D78" s="8">
         <v>1</v>
@@ -4940,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -4948,25 +5210,29 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78" s="12">
         <v>5</v>
       </c>
-      <c r="Q78" s="12"/>
+      <c r="Q78" s="12">
+        <v>2</v>
+      </c>
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
       <c r="T78" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="8">
         <v>130301302</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D79" s="8">
         <v>2</v>
@@ -4984,17 +5250,17 @@
         <v>1</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="N79" s="8">
         <v>1</v>
@@ -5011,14 +5277,20 @@
       <c r="T79" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79" s="12">
+        <v>1</v>
+      </c>
+      <c r="V79" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="8">
         <v>130301401</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
@@ -5036,7 +5308,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -5055,14 +5327,16 @@
       <c r="T80" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="8">
         <v>130301501</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D81" s="8">
         <v>1</v>
@@ -5080,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -5099,14 +5373,16 @@
       <c r="T81" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="9">
         <v>130301601</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D82" s="8">
         <v>1</v>
@@ -5124,11 +5400,11 @@
         <v>1</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -5145,14 +5421,16 @@
       <c r="T82" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="8">
         <v>130301701</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
@@ -5170,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -5185,20 +5463,22 @@
       </c>
       <c r="Q83" s="12"/>
       <c r="R83" s="12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="S83" s="12"/>
       <c r="T83" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="8">
         <v>130301702</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D84" s="8">
         <v>1</v>
@@ -5218,7 +5498,7 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -5235,14 +5515,20 @@
       <c r="T84" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="12">
+        <v>1</v>
+      </c>
+      <c r="V84" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="8">
         <v>130301703</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D85" s="8">
         <v>2</v>
@@ -5262,7 +5548,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -5279,14 +5565,16 @@
       <c r="T85" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="8">
         <v>130301801</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D86" s="8">
         <v>1</v>
@@ -5304,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -5323,14 +5611,16 @@
       <c r="T86" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="8">
         <v>130301802</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D87" s="8">
         <v>1</v>
@@ -5348,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -5367,14 +5657,16 @@
       <c r="T87" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="8">
         <v>130301901</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D88" s="8">
         <v>1</v>
@@ -5392,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -5407,7 +5699,7 @@
       </c>
       <c r="Q88" s="12"/>
       <c r="R88" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="S88" s="12">
         <v>1</v>
@@ -5415,14 +5707,20 @@
       <c r="T88" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="12">
+        <v>1</v>
+      </c>
+      <c r="V88" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="8">
         <v>130302001</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D89" s="8">
         <v>1</v>
@@ -5440,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -5459,14 +5757,16 @@
       <c r="T89" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="8">
         <v>130302002</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D90" s="8">
         <v>1</v>
@@ -5484,11 +5784,11 @@
         <v>1</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -5505,14 +5805,16 @@
       <c r="T90" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="8">
         <v>130302003</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D91" s="8">
         <v>1</v>
@@ -5530,11 +5832,11 @@
         <v>1</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
@@ -5551,14 +5853,16 @@
       <c r="T91" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="8">
         <v>130302004</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
@@ -5576,11 +5880,11 @@
         <v>1</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -5597,14 +5901,16 @@
       <c r="T92" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="8">
         <v>130302101</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D93" s="8">
         <v>1</v>
@@ -5622,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -5641,14 +5947,16 @@
       <c r="T93" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="8">
         <v>130302102</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D94" s="8">
         <v>2</v>
@@ -5666,17 +5974,17 @@
         <v>1</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L94" s="8"/>
       <c r="M94" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="N94" s="8">
         <v>1</v>
@@ -5693,14 +6001,20 @@
       <c r="T94" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="12">
+        <v>1</v>
+      </c>
+      <c r="V94" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="8">
         <v>130400101</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
@@ -5718,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -5737,14 +6051,16 @@
       <c r="T95" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="8">
         <v>130400102</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D96" s="8">
         <v>1</v>
@@ -5762,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -5781,14 +6097,16 @@
       <c r="T96" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="8">
         <v>130400201</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
@@ -5806,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -5825,14 +6143,16 @@
       <c r="T97" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="8">
         <v>130400202</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D98" s="8">
         <v>1</v>
@@ -5850,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -5869,14 +6189,16 @@
       <c r="T98" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="8">
         <v>130400301</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D99" s="8">
         <v>1</v>
@@ -5894,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -5913,14 +6235,16 @@
       <c r="T99" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="8">
         <v>130400401</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D100" s="8">
         <v>2</v>
@@ -5938,11 +6262,11 @@
         <v>1</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="8" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -5959,14 +6283,16 @@
       <c r="T100" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="8">
         <v>130400501</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D101" s="8">
         <v>1</v>
@@ -5984,11 +6310,11 @@
         <v>1</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
@@ -6005,14 +6331,16 @@
       <c r="T101" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="8">
         <v>130400601</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D102" s="8">
         <v>2</v>
@@ -6030,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -6049,14 +6377,16 @@
       <c r="T102" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="8">
         <v>130400701</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D103" s="8">
         <v>1</v>
@@ -6074,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -6093,14 +6423,16 @@
       <c r="T103" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="8">
         <v>130400801</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D104" s="8">
         <v>1</v>
@@ -6118,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -6137,14 +6469,16 @@
       <c r="T104" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="8">
         <v>130400901</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D105" s="8">
         <v>1</v>
@@ -6162,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -6181,14 +6515,16 @@
       <c r="T105" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="8">
         <v>130401001</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D106" s="8">
         <v>2</v>
@@ -6206,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -6225,14 +6561,16 @@
       <c r="T106" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="8">
         <v>130401101</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D107" s="8">
         <v>2</v>
@@ -6250,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -6269,14 +6607,16 @@
       <c r="T107" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="8">
         <v>130401201</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D108" s="8">
         <v>2</v>
@@ -6298,7 +6638,7 @@
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="8" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -6315,14 +6655,16 @@
       <c r="T108" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="8">
         <v>130401202</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D109" s="8">
         <v>2</v>
@@ -6340,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -6359,14 +6701,20 @@
       <c r="T109" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U109" s="12">
+        <v>1</v>
+      </c>
+      <c r="V109" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="8">
         <v>130401301</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D110" s="8">
         <v>2</v>
@@ -6384,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -6403,14 +6751,16 @@
       <c r="T110" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="8">
         <v>130401401</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D111" s="8">
         <v>2</v>
@@ -6428,11 +6778,11 @@
         <v>1</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -6449,14 +6799,16 @@
       <c r="T111" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="8">
         <v>130401501</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D112" s="8">
         <v>2</v>
@@ -6478,7 +6830,7 @@
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
@@ -6495,14 +6847,16 @@
       <c r="T112" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="8">
         <v>130401502</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D113" s="8">
         <v>2</v>
@@ -6520,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -6539,14 +6893,20 @@
       <c r="T113" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U113" s="12">
+        <v>1</v>
+      </c>
+      <c r="V113" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="8">
         <v>130401601</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D114" s="8">
         <v>2</v>
@@ -6568,7 +6928,7 @@
       </c>
       <c r="J114" s="8"/>
       <c r="K114" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -6585,14 +6945,16 @@
       <c r="T114" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="8">
         <v>130401602</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D115" s="8">
         <v>2</v>
@@ -6610,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="J115" s="8"/>
       <c r="L115" s="8"/>
@@ -6628,14 +6990,16 @@
       <c r="T115" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="8">
         <v>130401701</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D116" s="8">
         <v>2</v>
@@ -6653,11 +7017,11 @@
         <v>1</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -6674,14 +7038,16 @@
       <c r="T116" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="8">
         <v>130401801</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D117" s="8">
         <v>2</v>
@@ -6699,11 +7065,11 @@
         <v>1</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="8" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
@@ -6720,14 +7086,16 @@
       <c r="T117" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="8">
         <v>130401901</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="D118" s="8">
         <v>1</v>
@@ -6744,8 +7112,8 @@
       <c r="H118" s="8">
         <v>1</v>
       </c>
-      <c r="I118" s="13" t="s">
-        <v>269</v>
+      <c r="I118" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -6764,6 +7132,146 @@
       <c r="T118" s="12">
         <v>0</v>
       </c>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="8">
+        <v>130600101</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D119" s="8">
+        <v>1</v>
+      </c>
+      <c r="E119" s="8">
+        <v>1</v>
+      </c>
+      <c r="F119" s="8">
+        <v>0</v>
+      </c>
+      <c r="G119" s="8">
+        <v>1001</v>
+      </c>
+      <c r="H119" s="8">
+        <v>1</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8">
+        <v>1</v>
+      </c>
+      <c r="P119" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12">
+        <v>0</v>
+      </c>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="8">
+        <v>130600201</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D120" s="8">
+        <v>1</v>
+      </c>
+      <c r="E120" s="8">
+        <v>1</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
+        <v>1001</v>
+      </c>
+      <c r="H120" s="8">
+        <v>1</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8">
+        <v>1</v>
+      </c>
+      <c r="P120" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12">
+        <v>0</v>
+      </c>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="8">
+        <v>130600301</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="8">
+        <v>1</v>
+      </c>
+      <c r="E121" s="8">
+        <v>1</v>
+      </c>
+      <c r="F121" s="8">
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
+        <v>1001</v>
+      </c>
+      <c r="H121" s="8">
+        <v>1</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8">
+        <v>1</v>
+      </c>
+      <c r="P121" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12">
+        <v>0</v>
+      </c>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6776,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6795,29 +7303,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -6831,21 +7339,21 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
         <f>IF(B2="int",0,"")</f>
@@ -6856,7 +7364,7 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -6870,7 +7378,7 @@
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6882,10 +7390,10 @@
         <v>4001</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6894,10 +7402,10 @@
         <v>4003</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6906,10 +7414,10 @@
         <v>4004</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6918,7 +7426,7 @@
         <v>4005</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -6928,10 +7436,10 @@
         <v>4006</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6940,10 +7448,10 @@
         <v>4007</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6952,10 +7460,10 @@
         <v>4008</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6964,10 +7472,10 @@
         <v>4009</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6976,7 +7484,7 @@
         <v>4010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -6986,10 +7494,10 @@
         <v>4011</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6998,10 +7506,10 @@
         <v>4012</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7010,7 +7518,7 @@
         <v>4013</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -7020,7 +7528,7 @@
         <v>4014</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -7030,10 +7538,10 @@
         <v>4015</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7042,7 +7550,7 @@
         <v>4016</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -7052,10 +7560,10 @@
         <v>4017</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7064,7 +7572,7 @@
         <v>4018</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -7074,7 +7582,7 @@
         <v>4019</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -7084,7 +7592,7 @@
         <v>4020</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -7094,7 +7602,7 @@
         <v>4021</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -7104,7 +7612,7 @@
         <v>4022</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -7114,7 +7622,7 @@
         <v>4101</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -7124,10 +7632,10 @@
         <v>4102</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7136,10 +7644,10 @@
         <v>4103</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7148,10 +7656,10 @@
         <v>4104</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7160,10 +7668,10 @@
         <v>4105</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7172,10 +7680,10 @@
         <v>4106</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7184,13 +7692,13 @@
         <v>4107</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D35" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>